--- a/data/vgp_database/Long_Valley_Caldera_volcanics.xlsx
+++ b/data/vgp_database/Long_Valley_Caldera_volcanics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimingzhang/Github/Gallo_etal_2023_APWP_construction/data/vgp_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD49461-D090-914B-9CE6-B0C9DBD4DB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38ECA942-4ED7-A54E-9279-C44AE25DEED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5420" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="132">
   <si>
     <t>Name:</t>
   </si>
@@ -432,120 +432,6 @@
   </si>
   <si>
     <t>10.1029/JB091iB01p00633</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB01p00634</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB01p00635</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB01p00636</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB01p00637</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB01p00638</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB01p00639</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB01p00640</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB01p00641</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB01p00642</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB01p00643</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB01p00644</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB01p00645</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB01p00646</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB01p00647</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB01p00648</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB01p00649</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB01p00650</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB01p00651</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB01p00652</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB01p00653</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB01p00654</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB01p00655</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB01p00656</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB01p00657</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB01p00658</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB01p00659</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB01p00660</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB01p00661</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB01p00662</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB01p00663</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB01p00664</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB01p00665</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB01p00666</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB01p00667</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB01p00668</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB01p00669</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB01p00670</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB01p00671</t>
   </si>
 </sst>
 </file>
@@ -954,7 +840,7 @@
   <dimension ref="A1:AQ729"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Y4" workbookViewId="0">
-      <selection activeCell="AO28" sqref="AO28"/>
+      <selection activeCell="AP10" sqref="AP10:AP47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1782,8 +1668,9 @@
       <c r="AO10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AP10" s="28" t="s">
-        <v>132</v>
+      <c r="AP10" s="28" t="str">
+        <f>AP9</f>
+        <v>10.1029/JB091iB01p00633</v>
       </c>
       <c r="AQ10" s="14"/>
     </row>
@@ -1891,8 +1778,9 @@
       <c r="AO11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AP11" s="28" t="s">
-        <v>133</v>
+      <c r="AP11" s="28" t="str">
+        <f t="shared" ref="AP11:AP47" si="0">AP10</f>
+        <v>10.1029/JB091iB01p00633</v>
       </c>
     </row>
     <row r="12" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2005,8 +1893,9 @@
       <c r="AO12" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AP12" s="28" t="s">
-        <v>134</v>
+      <c r="AP12" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB01p00633</v>
       </c>
     </row>
     <row r="13" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2119,8 +2008,9 @@
       <c r="AO13" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AP13" s="28" t="s">
-        <v>135</v>
+      <c r="AP13" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB01p00633</v>
       </c>
     </row>
     <row r="14" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2233,8 +2123,9 @@
       <c r="AO14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AP14" s="28" t="s">
-        <v>136</v>
+      <c r="AP14" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB01p00633</v>
       </c>
     </row>
     <row r="15" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2341,8 +2232,9 @@
       <c r="AO15" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AP15" s="28" t="s">
-        <v>137</v>
+      <c r="AP15" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB01p00633</v>
       </c>
     </row>
     <row r="16" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2455,8 +2347,9 @@
       <c r="AO16" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AP16" s="28" t="s">
-        <v>138</v>
+      <c r="AP16" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB01p00633</v>
       </c>
     </row>
     <row r="17" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2563,8 +2456,9 @@
       <c r="AO17" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AP17" s="28" t="s">
-        <v>139</v>
+      <c r="AP17" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB01p00633</v>
       </c>
     </row>
     <row r="18" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2675,8 +2569,9 @@
       <c r="AO18" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AP18" s="28" t="s">
-        <v>140</v>
+      <c r="AP18" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB01p00633</v>
       </c>
     </row>
     <row r="19" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2785,8 +2680,9 @@
       <c r="AO19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AP19" s="28" t="s">
-        <v>141</v>
+      <c r="AP19" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB01p00633</v>
       </c>
     </row>
     <row r="20" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2895,8 +2791,9 @@
       <c r="AO20" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AP20" s="28" t="s">
-        <v>142</v>
+      <c r="AP20" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB01p00633</v>
       </c>
     </row>
     <row r="21" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3009,8 +2906,9 @@
       <c r="AO21" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AP21" s="28" t="s">
-        <v>143</v>
+      <c r="AP21" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB01p00633</v>
       </c>
     </row>
     <row r="22" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3117,8 +3015,9 @@
       <c r="AO22" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AP22" s="28" t="s">
-        <v>144</v>
+      <c r="AP22" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB01p00633</v>
       </c>
     </row>
     <row r="23" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3227,8 +3126,9 @@
       <c r="AO23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AP23" s="28" t="s">
-        <v>145</v>
+      <c r="AP23" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB01p00633</v>
       </c>
     </row>
     <row r="24" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3335,8 +3235,9 @@
       <c r="AO24" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AP24" s="28" t="s">
-        <v>146</v>
+      <c r="AP24" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB01p00633</v>
       </c>
     </row>
     <row r="25" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3443,8 +3344,9 @@
       <c r="AO25" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AP25" s="28" t="s">
-        <v>147</v>
+      <c r="AP25" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB01p00633</v>
       </c>
     </row>
     <row r="26" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3551,8 +3453,9 @@
       <c r="AO26" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AP26" s="28" t="s">
-        <v>148</v>
+      <c r="AP26" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB01p00633</v>
       </c>
     </row>
     <row r="27" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3663,8 +3566,9 @@
       <c r="AO27" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AP27" s="28" t="s">
-        <v>149</v>
+      <c r="AP27" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB01p00633</v>
       </c>
     </row>
     <row r="28" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3775,8 +3679,9 @@
       <c r="AO28" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AP28" s="28" t="s">
-        <v>150</v>
+      <c r="AP28" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB01p00633</v>
       </c>
     </row>
     <row r="29" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3885,8 +3790,9 @@
       <c r="AO29" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AP29" s="28" t="s">
-        <v>151</v>
+      <c r="AP29" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB01p00633</v>
       </c>
     </row>
     <row r="30" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3993,8 +3899,9 @@
       <c r="AO30" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AP30" s="28" t="s">
-        <v>152</v>
+      <c r="AP30" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB01p00633</v>
       </c>
     </row>
     <row r="31" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4105,8 +4012,9 @@
       <c r="AO31" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AP31" s="28" t="s">
-        <v>153</v>
+      <c r="AP31" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB01p00633</v>
       </c>
     </row>
     <row r="32" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4213,8 +4121,9 @@
       <c r="AO32" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AP32" s="28" t="s">
-        <v>154</v>
+      <c r="AP32" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB01p00633</v>
       </c>
     </row>
     <row r="33" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4321,8 +4230,9 @@
       <c r="AO33" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AP33" s="28" t="s">
-        <v>155</v>
+      <c r="AP33" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB01p00633</v>
       </c>
     </row>
     <row r="34" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4433,8 +4343,9 @@
       <c r="AO34" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AP34" s="28" t="s">
-        <v>156</v>
+      <c r="AP34" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB01p00633</v>
       </c>
     </row>
     <row r="35" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4541,8 +4452,9 @@
       <c r="AO35" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AP35" s="28" t="s">
-        <v>157</v>
+      <c r="AP35" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB01p00633</v>
       </c>
     </row>
     <row r="36" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4649,8 +4561,9 @@
       <c r="AO36" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AP36" s="28" t="s">
-        <v>158</v>
+      <c r="AP36" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB01p00633</v>
       </c>
     </row>
     <row r="37" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4757,8 +4670,9 @@
       <c r="AO37" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AP37" s="28" t="s">
-        <v>159</v>
+      <c r="AP37" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB01p00633</v>
       </c>
     </row>
     <row r="38" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4865,8 +4779,9 @@
       <c r="AO38" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AP38" s="28" t="s">
-        <v>160</v>
+      <c r="AP38" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB01p00633</v>
       </c>
     </row>
     <row r="39" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4973,8 +4888,9 @@
       <c r="AO39" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AP39" s="28" t="s">
-        <v>161</v>
+      <c r="AP39" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB01p00633</v>
       </c>
     </row>
     <row r="40" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5083,8 +4999,9 @@
       <c r="AO40" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AP40" s="28" t="s">
-        <v>162</v>
+      <c r="AP40" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB01p00633</v>
       </c>
     </row>
     <row r="41" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5191,8 +5108,9 @@
       <c r="AO41" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AP41" s="28" t="s">
-        <v>163</v>
+      <c r="AP41" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB01p00633</v>
       </c>
     </row>
     <row r="42" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5303,8 +5221,9 @@
       <c r="AO42" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AP42" s="28" t="s">
-        <v>164</v>
+      <c r="AP42" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB01p00633</v>
       </c>
     </row>
     <row r="43" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5411,8 +5330,9 @@
       <c r="AO43" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AP43" s="28" t="s">
-        <v>165</v>
+      <c r="AP43" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB01p00633</v>
       </c>
     </row>
     <row r="44" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5523,8 +5443,9 @@
       <c r="AO44" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AP44" s="28" t="s">
-        <v>166</v>
+      <c r="AP44" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB01p00633</v>
       </c>
     </row>
     <row r="45" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5629,8 +5550,9 @@
       <c r="AO45" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AP45" s="28" t="s">
-        <v>167</v>
+      <c r="AP45" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB01p00633</v>
       </c>
     </row>
     <row r="46" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5737,8 +5659,9 @@
       <c r="AO46" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AP46" s="28" t="s">
-        <v>168</v>
+      <c r="AP46" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB01p00633</v>
       </c>
     </row>
     <row r="47" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5849,8 +5772,9 @@
       <c r="AO47" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AP47" s="28" t="s">
-        <v>169</v>
+      <c r="AP47" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB01p00633</v>
       </c>
     </row>
     <row r="48" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -36466,7 +36390,6 @@
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="AP9" r:id="rId1" display="https://doi.org/10.1029/JB091iB01p00633" xr:uid="{876CBCB3-25D5-904E-AD9D-396D8F052B82}"/>
-    <hyperlink ref="AP10:AP47" r:id="rId2" display="https://doi.org/10.1029/JB091iB01p00633" xr:uid="{B171095B-F382-FD48-9182-B6F212742AD5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
